--- a/sales_report.xlsx
+++ b/sales_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Order ID</t>
   </si>
@@ -34,13 +34,28 @@
     <t>Shipping Method</t>
   </si>
   <si>
-    <t>6574a8187a4c92f398e0e87e</t>
+    <t>6577dcaedc62f72677d55919</t>
   </si>
   <si>
     <t>654fac091349f8c94c75a57b</t>
   </si>
   <si>
-    <t>9/12/2023, 11:17:04 pm</t>
+    <t>12/12/2023, 9:38:14 am</t>
+  </si>
+  <si>
+    <t>Out for delivery</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>6577dcc8dc62f72677d55963</t>
+  </si>
+  <si>
+    <t>12/12/2023, 9:38:40 am</t>
   </si>
   <si>
     <t>Placed</t>
@@ -49,7 +64,22 @@
     <t>COD</t>
   </si>
   <si>
-    <t>Express</t>
+    <t>6577dce5dc62f72677d559a9</t>
+  </si>
+  <si>
+    <t>12/12/2023, 9:39:09 am</t>
+  </si>
+  <si>
+    <t>Shipped</t>
+  </si>
+  <si>
+    <t>6577e5e8ce97f764120b06bc</t>
+  </si>
+  <si>
+    <t>6577e458ce97f764120b062e</t>
+  </si>
+  <si>
+    <t>12/12/2023, 10:17:36 am</t>
   </si>
 </sst>
 </file>
@@ -426,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -463,7 +493,7 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>2121</v>
+        <v>1490.55</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -472,6 +502,75 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>2339.1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>2139</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>1490.55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
         <v>12</v>
       </c>
     </row>

--- a/sales_report.xlsx
+++ b/sales_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Order ID</t>
   </si>
@@ -34,16 +34,16 @@
     <t>Shipping Method</t>
   </si>
   <si>
-    <t>6577dcaedc62f72677d55919</t>
-  </si>
-  <si>
-    <t>654fac091349f8c94c75a57b</t>
-  </si>
-  <si>
-    <t>12/12/2023, 9:38:14 am</t>
-  </si>
-  <si>
-    <t>Out for delivery</t>
+    <t>659448bd5c3188b0221597cd</t>
+  </si>
+  <si>
+    <t>65944191c8c78c991a97342e</t>
+  </si>
+  <si>
+    <t>2/1/2024, 11:02:45 pm</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
   </si>
   <si>
     <t>Online</t>
@@ -52,34 +52,40 @@
     <t>Express</t>
   </si>
   <si>
-    <t>6577dcc8dc62f72677d55963</t>
-  </si>
-  <si>
-    <t>12/12/2023, 9:38:40 am</t>
-  </si>
-  <si>
-    <t>Placed</t>
+    <t>65944a8706ca2ec75873132e</t>
+  </si>
+  <si>
+    <t>2/1/2024, 11:10:23 pm</t>
+  </si>
+  <si>
+    <t>Delivered</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>6577dce5dc62f72677d559a9</t>
-  </si>
-  <si>
-    <t>12/12/2023, 9:39:09 am</t>
-  </si>
-  <si>
-    <t>Shipped</t>
-  </si>
-  <si>
-    <t>6577e5e8ce97f764120b06bc</t>
-  </si>
-  <si>
-    <t>6577e458ce97f764120b062e</t>
-  </si>
-  <si>
-    <t>12/12/2023, 10:17:36 am</t>
+    <t>65944d291df6216f2f8e3a22</t>
+  </si>
+  <si>
+    <t>2/1/2024, 11:21:37 pm</t>
+  </si>
+  <si>
+    <t>6594b42b1df6216f2f8e3a59</t>
+  </si>
+  <si>
+    <t>3/1/2024, 6:41:07 am</t>
+  </si>
+  <si>
+    <t>6594b7cd740c09992856da1f</t>
+  </si>
+  <si>
+    <t>3/1/2024, 6:56:37 am</t>
+  </si>
+  <si>
+    <t>6594e6edc20a9480423086f3</t>
+  </si>
+  <si>
+    <t>3/1/2024, 10:17:41 am</t>
   </si>
 </sst>
 </file>
@@ -456,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -493,7 +499,7 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>1490.55</v>
+        <v>288.9</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -516,7 +522,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>2339.1</v>
+        <v>1622.565</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -539,10 +545,10 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>2139</v>
+        <v>1622.565</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -553,16 +559,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
       <c r="D5">
-        <v>1490.55</v>
+        <v>1802.85</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -571,6 +577,52 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>1622.565</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>4029.9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
         <v>12</v>
       </c>
     </row>
